--- a/fc2_overview_data.xlsx
+++ b/fc2_overview_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="44">
   <si>
     <t xml:space="preserve">block</t>
   </si>
@@ -52,18 +52,6 @@
     <t xml:space="preserve">VII-31</t>
   </si>
   <si>
-    <t xml:space="preserve">21/02/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">cc</t>
   </si>
   <si>
@@ -76,12 +64,6 @@
     <t xml:space="preserve">VII-36</t>
   </si>
   <si>
-    <t xml:space="preserve">22/02/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">vb</t>
   </si>
   <si>
@@ -91,21 +73,9 @@
     <t xml:space="preserve">VII-21</t>
   </si>
   <si>
-    <t xml:space="preserve">23/02/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">VII-17</t>
   </si>
   <si>
-    <t xml:space="preserve">24/02/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">vy</t>
   </si>
   <si>
@@ -115,193 +85,70 @@
     <t xml:space="preserve">VII-27</t>
   </si>
   <si>
-    <t xml:space="preserve">28/02/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">VII-37</t>
   </si>
   <si>
-    <t xml:space="preserve">01/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">VII-49</t>
   </si>
   <si>
-    <t xml:space="preserve">02/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">VII-23</t>
   </si>
   <si>
-    <t xml:space="preserve">03/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A56</t>
   </si>
   <si>
-    <t xml:space="preserve">21/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A41</t>
   </si>
   <si>
-    <t xml:space="preserve">24/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A51</t>
   </si>
   <si>
-    <t xml:space="preserve">25/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A08</t>
   </si>
   <si>
     <t xml:space="preserve">A47</t>
   </si>
   <si>
-    <t xml:space="preserve">28/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/03/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A77</t>
   </si>
   <si>
-    <t xml:space="preserve">31/03/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A55</t>
   </si>
   <si>
-    <t xml:space="preserve">01/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A42</t>
   </si>
   <si>
-    <t xml:space="preserve">02/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A48</t>
   </si>
   <si>
-    <t xml:space="preserve">04/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A54</t>
   </si>
   <si>
-    <t xml:space="preserve">07/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A80</t>
   </si>
   <si>
-    <t xml:space="preserve">08/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A36</t>
   </si>
   <si>
-    <t xml:space="preserve">09/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A26</t>
   </si>
   <si>
-    <t xml:space="preserve">11/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A75</t>
   </si>
   <si>
-    <t xml:space="preserve">14/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A64</t>
   </si>
   <si>
-    <t xml:space="preserve">17/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A33</t>
   </si>
   <si>
     <t xml:space="preserve">A43</t>
   </si>
   <si>
-    <t xml:space="preserve">20/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A76</t>
   </si>
   <si>
-    <t xml:space="preserve">21/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">A99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/04/2022</t>
   </si>
   <si>
     <t xml:space="preserve">A79</t>
@@ -313,13 +160,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -408,16 +256,16 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.21"/>
@@ -459,26 +307,26 @@
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
+      <c r="C2" s="1" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>44627</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>44629</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,28 +334,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+      <c r="C3" s="1" t="n">
+        <v>44614</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>44629</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>44630</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,28 +363,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44615</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>44629</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>44630</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>44631</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,28 +392,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>44616</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>44630</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>44631</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>44632</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,28 +421,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>44634</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>44635</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>44636</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,28 +450,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>44635</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>44636</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>44637</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,28 +479,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>44622</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>44636</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>44637</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>44638</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,28 +508,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>44623</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>44637</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>44639</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,28 +537,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>44643</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,28 +566,28 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>44628</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>44644</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,28 +595,28 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>44629</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>44646</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,28 +624,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>44636</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,28 +653,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>44650</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,28 +682,28 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>44635</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-620092</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>44651</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,28 +711,28 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>44636</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>44652</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,28 +740,28 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>44637</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>44653</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,28 +769,28 @@
         <v>5</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>44655</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>44657</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,28 +798,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>44657</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>44658</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,28 +827,28 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>44657</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>44659</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,28 +856,28 @@
         <v>5</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>44659</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>44660</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,28 +885,28 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>44663</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>44664</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,28 +914,28 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>44667</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,28 +943,28 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>44668</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>44669</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>44670</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,28 +972,28 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>44666</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>44667</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>44668</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,28 +1001,28 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>44669</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>44670</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>44671</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,28 +1030,28 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>44670</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>44672</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,28 +1059,28 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44657</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>44672</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>44674</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,28 +1088,28 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>44658</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>44672</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>44674</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
